--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>589830.3351198992</v>
+        <v>583968.0150847201</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892727</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10735763.11276913</v>
+        <v>10734583.1539883</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>296.4419444935654</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>209.4820962612051</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226796</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968097</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>62.40454814165092</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>116.876383545772</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>56.25470200512325</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>310.2228557995622</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968097</v>
+        <v>50.64353720722846</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>22.96189723698667</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>176.2752160186571</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101.5459998857697</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>408.8546420314357</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>10.35225270240824</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>172.3495380358468</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.1141746302117</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>165.2690206460132</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
@@ -1607,7 +1607,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>234.1900392959051</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>75.72452079258287</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.447489593873</v>
@@ -1765,13 +1765,13 @@
         <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
         <v>84.67436304442487</v>
@@ -1780,7 +1780,7 @@
         <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>60.68516871456097</v>
@@ -1822,10 +1822,10 @@
         <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>98.98279686386726</v>
+        <v>87.08532297166389</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.9290753658107</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596575005</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973565018</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.5760187316785</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196091</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380064</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667975</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644701</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883915</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541119</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658312</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.88205970103904</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656636</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135906</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>758.0838543622933</v>
+        <v>1061.714384598002</v>
       </c>
       <c r="C2" t="n">
-        <v>364.9083528652239</v>
+        <v>668.5388831009325</v>
       </c>
       <c r="D2" t="n">
-        <v>65.4720452959659</v>
+        <v>668.5388831009325</v>
       </c>
       <c r="E2" t="n">
-        <v>65.4720452959659</v>
+        <v>265.955358217477</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634772</v>
+        <v>253.1013237878588</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J2" t="n">
-        <v>135.6402479253942</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>135.6402479253942</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>135.6402479253942</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354866</v>
+        <v>1376.714099066288</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572949</v>
+        <v>1890.316777675977</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465277</v>
+        <v>1890.316777675977</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675977</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737747</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="U2" t="n">
-        <v>1919.030240172346</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="V2" t="n">
-        <v>1919.030240172346</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="W2" t="n">
-        <v>1548.031205140634</v>
+        <v>1851.661735376342</v>
       </c>
       <c r="X2" t="n">
-        <v>1158.57860007369</v>
+        <v>1462.209130309399</v>
       </c>
       <c r="Y2" t="n">
-        <v>1158.57860007369</v>
+        <v>1462.209130309399</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813206</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414128</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628932</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737809</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653859</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875478</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875478</v>
+        <v>1435.175877545638</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>1435.175877545638</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737747</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737747</v>
+        <v>1916.314617614859</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996763</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467747</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.989120422282</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475495</v>
+        <v>1748.445264632052</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475495</v>
+        <v>1578.240146698041</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475495</v>
+        <v>1422.607033600556</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475495</v>
+        <v>1422.607033600556</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475495</v>
+        <v>1422.607033600556</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475495</v>
+        <v>1359.572136487777</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475495</v>
+        <v>1204.093585449271</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475495</v>
+        <v>1204.093585449271</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475495</v>
+        <v>1173.715315275373</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>1255.550356385315</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.677996259115</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>1605.969574597379</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628588</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670296</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446875</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>1951.261348449503</v>
       </c>
       <c r="S4" t="n">
-        <v>826.88572885977</v>
+        <v>1748.445264632052</v>
       </c>
       <c r="T4" t="n">
-        <v>826.88572885977</v>
+        <v>1748.445264632052</v>
       </c>
       <c r="U4" t="n">
-        <v>826.88572885977</v>
+        <v>1748.445264632052</v>
       </c>
       <c r="V4" t="n">
-        <v>560.9063836805942</v>
+        <v>1748.445264632052</v>
       </c>
       <c r="W4" t="n">
-        <v>277.5759816117719</v>
+        <v>1748.445264632052</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475495</v>
+        <v>1748.445264632052</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475495</v>
+        <v>1748.445264632052</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>873.552853376774</v>
+        <v>899.2048661710508</v>
       </c>
       <c r="C5" t="n">
-        <v>873.552853376774</v>
+        <v>899.2048661710508</v>
       </c>
       <c r="D5" t="n">
-        <v>873.552853376774</v>
+        <v>513.7637373877185</v>
       </c>
       <c r="E5" t="n">
-        <v>873.552853376774</v>
+        <v>111.180212504263</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>98.32617807464483</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150838</v>
+        <v>914.0882813934894</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.749917465277</v>
+        <v>1427.690960003179</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465277</v>
+        <v>1867.730560895507</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678798</v>
+        <v>1908.648782757976</v>
       </c>
       <c r="T5" t="n">
-        <v>1784.768812238215</v>
+        <v>1685.148180317393</v>
       </c>
       <c r="U5" t="n">
-        <v>1529.016082672813</v>
+        <v>1685.148180317393</v>
       </c>
       <c r="V5" t="n">
-        <v>1186.909273376332</v>
+        <v>1685.148180317393</v>
       </c>
       <c r="W5" t="n">
-        <v>873.552853376774</v>
+        <v>1685.148180317393</v>
       </c>
       <c r="X5" t="n">
-        <v>873.552853376774</v>
+        <v>1295.69557525045</v>
       </c>
       <c r="Y5" t="n">
-        <v>873.552853376774</v>
+        <v>899.2048661710508</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475495</v>
+        <v>361.242392818565</v>
       </c>
       <c r="L6" t="n">
-        <v>527.0617452930682</v>
+        <v>407.9705203262595</v>
       </c>
       <c r="M6" t="n">
-        <v>714.3825334202763</v>
+        <v>921.5731989359485</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.641318430369</v>
+        <v>921.5731989359485</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.16160102135</v>
+        <v>1435.175877545638</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737747</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.87392956865301</v>
+        <v>530.8141733246547</v>
       </c>
       <c r="C7" t="n">
-        <v>73.87392956865301</v>
+        <v>360.6090553906439</v>
       </c>
       <c r="D7" t="n">
-        <v>73.87392956865301</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="E7" t="n">
-        <v>73.87392956865301</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865301</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865301</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865301</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865301</v>
+        <v>71.88151693023656</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>97.06776516156884</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>73.87392956865301</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>73.87392956865301</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>73.87392956865301</v>
+        <v>708.869947080874</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.87392956865301</v>
+        <v>530.8141733246547</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2058.57031924742</v>
+        <v>862.595309970646</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.394817750351</v>
+        <v>469.4198084735766</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>469.4198084735766</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>469.4198084735766</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4808,16 +4808,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.142036303753</v>
+        <v>1263.090055682043</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.142036303753</v>
+        <v>1263.090055682043</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1714.395101119022</v>
+        <v>1712.892289341942</v>
       </c>
       <c r="C11" t="n">
-        <v>1393.015874768147</v>
+        <v>1391.513062991067</v>
       </c>
       <c r="D11" t="n">
-        <v>1079.371021131009</v>
+        <v>1077.868209353928</v>
       </c>
       <c r="E11" t="n">
-        <v>748.5837713937468</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>403.4856080699185</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2685.44433553818</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2685.44433553818</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.44433553818</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.78800561743</v>
+        <v>2366.28519384035</v>
       </c>
       <c r="Y11" t="n">
-        <v>2043.093571684225</v>
+        <v>2041.590759907145</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>461.419898734394</v>
+        <v>413.6570050786607</v>
       </c>
       <c r="C13" t="n">
-        <v>363.0110559465771</v>
+        <v>315.2481622908438</v>
       </c>
       <c r="D13" t="n">
-        <v>279.1742179952859</v>
+        <v>231.4113243395524</v>
       </c>
       <c r="E13" t="n">
-        <v>195.4116810006822</v>
+        <v>147.6487873449487</v>
       </c>
       <c r="F13" t="n">
-        <v>195.4116810006822</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>195.4116810006822</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>111.72940510837</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126308</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T13" t="n">
-        <v>1313.608118922021</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U13" t="n">
-        <v>1099.965602310116</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="V13" t="n">
-        <v>1099.965602310116</v>
+        <v>1007.606986424697</v>
       </c>
       <c r="W13" t="n">
-        <v>888.4314753874874</v>
+        <v>840.668581731754</v>
       </c>
       <c r="X13" t="n">
-        <v>726.1474283166643</v>
+        <v>678.384534660931</v>
       </c>
       <c r="Y13" t="n">
-        <v>574.8316422795015</v>
+        <v>527.0687486237681</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1711.843491816803</v>
+        <v>1950.950696367412</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816803</v>
+        <v>1629.571470016536</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1315.926616379398</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442403</v>
+        <v>985.1393666421361</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185748</v>
+        <v>640.0412033183078</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>298.6747229525045</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2934.749690351018</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="V14" t="n">
-        <v>2664.43915620073</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.236396315211</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.236396315211</v>
+        <v>2604.34360086582</v>
       </c>
       <c r="Y14" t="n">
-        <v>2040.541962382006</v>
+        <v>2279.649166932615</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.3326729474581</v>
+        <v>389.1672533106412</v>
       </c>
       <c r="C16" t="n">
-        <v>472.9238301596413</v>
+        <v>389.1672533106412</v>
       </c>
       <c r="D16" t="n">
-        <v>389.0869922083498</v>
+        <v>389.1672533106412</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083498</v>
+        <v>305.4047163160376</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675166</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G16" t="n">
-        <v>207.099553813156</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5434,19 +5434,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5467,19 +5467,19 @@
         <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245439</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V16" t="n">
-        <v>936.0428256245439</v>
+        <v>741.8597555915622</v>
       </c>
       <c r="W16" t="n">
-        <v>836.0602025297285</v>
+        <v>653.8947828929115</v>
       </c>
       <c r="X16" t="n">
-        <v>836.0602025297285</v>
+        <v>653.8947828929115</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.7444164925656</v>
+        <v>502.5789968557486</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,31 +5534,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5683,10 +5683,10 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
         <v>1089.200323498045</v>
@@ -5695,28 +5695,28 @@
         <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099319</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803436</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924237</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5774,7 +5774,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229814</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>149.53381142224</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960398</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343038</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655131</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296498</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
@@ -5978,28 +5978,28 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,19 +6008,19 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229814</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.53381142224</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960398</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343038</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655131</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072212</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106228</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471387995</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958346</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343937</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388517</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755553</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6467,16 +6467,16 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6540,19 +6540,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>148.425166752431</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>468.1643128146575</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>468.1643128146575</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.935962441339</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6598,37 +6598,37 @@
         <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835532</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>614.247410401922</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1219.219822695434</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513238</v>
+        <v>1876.872843314997</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.9954281507</v>
+        <v>2404.684126952459</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043029</v>
+        <v>2844.723727844787</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174551</v>
+        <v>3192.911219976309</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>387.2942816645716</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.741431909019</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929732</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404874</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245272</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652547</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597527</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407233</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374226</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>143.5810516071592</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803363</v>
+        <v>225.416092717101</v>
       </c>
       <c r="L34" t="n">
-        <v>391.009579354136</v>
+        <v>501.1958531658835</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188142</v>
+        <v>687.4874315041475</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770937</v>
+        <v>870.6770655353566</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145872</v>
+        <v>1145.033953152047</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1376.562239503609</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250211</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273703</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.314437140073</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045811</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027495</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6968,16 +6968,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,22 +7099,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,49 +7333,49 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M40" t="n">
         <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7561,31 +7561,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803421</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7670,28 +7670,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7731,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072216</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P46" t="n">
-        <v>965.7235964838002</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q46" t="n">
         <v>1098.20216247628</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>210.7551798924868</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>491.4002350877584</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920155</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8058,19 +8058,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>416.7338824638915</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837487</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>567.445260944098</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519586</v>
       </c>
       <c r="N5" t="n">
-        <v>358.9092239786316</v>
+        <v>667.9090757920155</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>359.8284946362975</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8295,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>137.2604756525693</v>
       </c>
       <c r="M6" t="n">
-        <v>281.6000393495222</v>
+        <v>611.1777065035433</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886035</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431203</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,7 +8456,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8532,25 +8532,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>663.2434089132782</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>507.6329599720908</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,7 +8769,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,25 +9006,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>691.2645480167034</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9714,16 +9714,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>691.2645480167034</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,22 +10188,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>158.2629500655362</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>691.2645480167034</v>
+        <v>454.532132304693</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,7 +10671,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>691.2645480167034</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,7 +10908,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>691.2645480167034</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>684.2495388215582</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11379,22 +11379,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>176.3345925796061</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>317.1271245374808</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.767351839168628</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>11.57099408434927</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.14976500738902</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>15.57386823853728</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>106.3923690824326</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>110.435988789535</v>
+        <v>122.3334626817384</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>941433.5114059757</v>
+        <v>940831.9637922153</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>941433.5114059757</v>
+        <v>940831.9637922153</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838539.6054487561</v>
+        <v>838539.605448756</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838539.605448756</v>
+        <v>838539.6054487561</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>342631.1383773778</v>
+        <v>342631.1383773779</v>
       </c>
       <c r="C2" t="n">
         <v>342631.1383773779</v>
       </c>
       <c r="D2" t="n">
-        <v>342631.1383773779</v>
+        <v>342631.1383773778</v>
       </c>
       <c r="E2" t="n">
-        <v>302782.1445063608</v>
+        <v>302782.1445063609</v>
       </c>
       <c r="F2" t="n">
-        <v>302782.1445063609</v>
+        <v>302782.144506361</v>
       </c>
       <c r="G2" t="n">
         <v>342631.1383773781</v>
@@ -26335,16 +26335,16 @@
         <v>342631.1383773781</v>
       </c>
       <c r="J2" t="n">
-        <v>342631.1383773782</v>
+        <v>342631.1383773781</v>
       </c>
       <c r="K2" t="n">
-        <v>342631.138377378</v>
+        <v>342631.1383773779</v>
       </c>
       <c r="L2" t="n">
         <v>342631.1383773783</v>
       </c>
       <c r="M2" t="n">
-        <v>342631.138377378</v>
+        <v>342631.1383773779</v>
       </c>
       <c r="N2" t="n">
         <v>342631.1383773781</v>
@@ -26353,7 +26353,7 @@
         <v>342631.1383773781</v>
       </c>
       <c r="P2" t="n">
-        <v>342631.1383773781</v>
+        <v>342631.1383773782</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401323</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728558</v>
+        <v>62456.24177539662</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962313</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166294</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166293</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
@@ -26427,16 +26427,16 @@
         <v>99893.08150805101</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805102</v>
+        <v>99893.08150805101</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="H4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
         <v>148402.4904640163</v>
@@ -26445,7 +26445,7 @@
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95203.61740865849</v>
+        <v>-91453.71920812415</v>
       </c>
       <c r="C6" t="n">
-        <v>87001.33088319737</v>
+        <v>82404.93782593127</v>
       </c>
       <c r="D6" t="n">
-        <v>80985.52922542408</v>
+        <v>73249.24000203275</v>
       </c>
       <c r="E6" t="n">
-        <v>37580.48182442474</v>
+        <v>37370.75027773533</v>
       </c>
       <c r="F6" t="n">
-        <v>149703.0432984694</v>
+        <v>149493.3117517799</v>
       </c>
       <c r="G6" t="n">
         <v>89384.04552554322</v>
       </c>
       <c r="H6" t="n">
-        <v>136809.3710622251</v>
+        <v>136809.3710622253</v>
       </c>
       <c r="I6" t="n">
         <v>136809.3710622252</v>
       </c>
       <c r="J6" t="n">
-        <v>-76232.54653506004</v>
+        <v>-69716.2613804873</v>
       </c>
       <c r="K6" t="n">
-        <v>130569.6026594422</v>
+        <v>130569.6026594421</v>
       </c>
       <c r="L6" t="n">
-        <v>75387.01372482131</v>
+        <v>71338.17651434916</v>
       </c>
       <c r="M6" t="n">
-        <v>94608.54160260197</v>
+        <v>93556.84659141395</v>
       </c>
       <c r="N6" t="n">
         <v>136809.3710622252</v>
@@ -26561,7 +26561,7 @@
         <v>109041.677019454</v>
       </c>
       <c r="P6" t="n">
-        <v>136809.3710622252</v>
+        <v>136809.3710622253</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,22 +26802,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="H4" t="n">
         <v>776.4890963014442</v>
       </c>
-      <c r="H4" t="n">
-        <v>776.4890963014441</v>
-      </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293145</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,10 +26826,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660698</v>
+        <v>78.07030221924578</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155135</v>
+        <v>17.58004954287462</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506367</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0769700321491</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773707</v>
+        <v>659.3622249971654</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407314</v>
+        <v>117.1268713042786</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506367</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321491</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>85.14477300193352</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>199.5490316956717</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27430,16 +27430,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343156</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.9184993862709</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27549,16 +27549,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>104.166965219898</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>83.91153943350409</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27594,13 +27594,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27619,16 +27619,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>352.7764259517536</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>57.06618888183317</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862709</v>
+        <v>124.5704364758521</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>240.3576544903974</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>44.60572455286595</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>294.9437983685132</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.870852053886267</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,13 +27910,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28755,19 +28755,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082783</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668696</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,16 +28995,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>28.01250026485243</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668696</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>30.27223765901121</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>30.27223765901221</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29539,19 +29539,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
+        <v>30.27223765901215</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>30.27223765901232</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>43.49509683160301</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M32" t="n">
-        <v>86.27291196566364</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224762</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861253955</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30171,25 +30171,25 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M37" t="n">
-        <v>5.636002634528609</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>35.71049010668767</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.01250026485285</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668787</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,19 +30648,19 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30891,13 +30891,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.636002634528467</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.07534195014065</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344369</v>
+        <v>341.6751834900311</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34778,19 +34778,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>326.6735356069732</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344369</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>482.0731480899314</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="N5" t="n">
-        <v>209.7907326408475</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>209.5270473953723</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>47.20012879565103</v>
       </c>
       <c r="M6" t="n">
-        <v>189.2129173002103</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344369</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>570.8562868639664</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>414.9454010832019</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634529554</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634527888</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>149.0995364028106</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>598.8774259673916</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634527888</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851002</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963363</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,19 +36835,19 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>75.81849273220281</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37069,13 +37069,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>406.1035372633826</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409207</v>
       </c>
       <c r="M32" t="n">
-        <v>637.7889726167551</v>
+        <v>664.2959804238012</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>598.8774259673916</v>
+        <v>362.1450102553811</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791191</v>
+        <v>76.79385455031718</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653315</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.1281693097886</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.8669559106679</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,7 +37391,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>598.8774259673916</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,10 +37467,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873206</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,7 +37628,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>598.8774259673916</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>220.7505244816465</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500534</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.636002634528801</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,19 +37944,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>86.27424572268784</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38187,13 +38187,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>169.9842521716073</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257369</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
